--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2652" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="304">
   <si>
     <t>date</t>
   </si>
@@ -921,6 +921,12 @@
   <si>
     <t>2.90</t>
   </si>
+  <si>
+    <t>3.24</t>
+  </si>
+  <si>
+    <t>3.28</t>
+  </si>
 </sst>
 </file>
 
@@ -1281,7 +1287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2651"/>
+  <dimension ref="A1:C2654"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30445,6 +30451,39 @@
         <v>292</v>
       </c>
     </row>
+    <row r="2652" spans="1:3">
+      <c r="A2652" s="1">
+        <v>12048</v>
+      </c>
+      <c r="B2652" s="2">
+        <v>44778</v>
+      </c>
+      <c r="C2652" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:3">
+      <c r="A2653" s="1">
+        <v>12049</v>
+      </c>
+      <c r="B2653" s="2">
+        <v>44781</v>
+      </c>
+      <c r="C2653" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:3">
+      <c r="A2654" s="1">
+        <v>12050</v>
+      </c>
+      <c r="B2654" s="2">
+        <v>44782</v>
+      </c>
+      <c r="C2654" t="s">
+        <v>303</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="304">
   <si>
     <t>date</t>
   </si>
@@ -1287,7 +1287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2654"/>
+  <dimension ref="A1:C2655"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30484,6 +30484,17 @@
         <v>303</v>
       </c>
     </row>
+    <row r="2655" spans="1:3">
+      <c r="A2655" s="1">
+        <v>12051</v>
+      </c>
+      <c r="B2655" s="2">
+        <v>44783</v>
+      </c>
+      <c r="C2655" t="s">
+        <v>297</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2657" uniqueCount="304">
   <si>
     <t>date</t>
   </si>
@@ -1287,7 +1287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2655"/>
+  <dimension ref="A1:C2656"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30495,6 +30495,17 @@
         <v>297</v>
       </c>
     </row>
+    <row r="2656" spans="1:3">
+      <c r="A2656" s="1">
+        <v>12052</v>
+      </c>
+      <c r="B2656" s="2">
+        <v>44784</v>
+      </c>
+      <c r="C2656" t="s">
+        <v>297</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2657" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="304">
   <si>
     <t>date</t>
   </si>
@@ -1287,7 +1287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2656"/>
+  <dimension ref="A1:C2657"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30506,6 +30506,17 @@
         <v>297</v>
       </c>
     </row>
+    <row r="2657" spans="1:3">
+      <c r="A2657" s="1">
+        <v>12053</v>
+      </c>
+      <c r="B2657" s="2">
+        <v>44785</v>
+      </c>
+      <c r="C2657" t="s">
+        <v>298</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2659" uniqueCount="304">
   <si>
     <t>date</t>
   </si>
@@ -1287,7 +1287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2657"/>
+  <dimension ref="A1:C2658"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30517,6 +30517,17 @@
         <v>298</v>
       </c>
     </row>
+    <row r="2658" spans="1:3">
+      <c r="A2658" s="1">
+        <v>12054</v>
+      </c>
+      <c r="B2658" s="2">
+        <v>44788</v>
+      </c>
+      <c r="C2658" t="s">
+        <v>283</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2659" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="304">
   <si>
     <t>date</t>
   </si>
@@ -1287,7 +1287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2658"/>
+  <dimension ref="A1:C2659"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30528,6 +30528,17 @@
         <v>283</v>
       </c>
     </row>
+    <row r="2659" spans="1:3">
+      <c r="A2659" s="1">
+        <v>12055</v>
+      </c>
+      <c r="B2659" s="2">
+        <v>44789</v>
+      </c>
+      <c r="C2659" t="s">
+        <v>298</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="304">
   <si>
     <t>date</t>
   </si>
@@ -1287,7 +1287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2659"/>
+  <dimension ref="A1:C2660"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30539,6 +30539,17 @@
         <v>298</v>
       </c>
     </row>
+    <row r="2660" spans="1:3">
+      <c r="A2660" s="1">
+        <v>12056</v>
+      </c>
+      <c r="B2660" s="2">
+        <v>44790</v>
+      </c>
+      <c r="C2660" t="s">
+        <v>303</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="305">
   <si>
     <t>date</t>
   </si>
@@ -927,6 +927,9 @@
   <si>
     <t>3.28</t>
   </si>
+  <si>
+    <t>3.22</t>
+  </si>
 </sst>
 </file>
 
@@ -1287,7 +1290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2660"/>
+  <dimension ref="A1:C2661"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30550,6 +30553,17 @@
         <v>303</v>
       </c>
     </row>
+    <row r="2661" spans="1:3">
+      <c r="A2661" s="1">
+        <v>12057</v>
+      </c>
+      <c r="B2661" s="2">
+        <v>44791</v>
+      </c>
+      <c r="C2661" t="s">
+        <v>304</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2663" uniqueCount="305">
   <si>
     <t>date</t>
   </si>
@@ -1290,7 +1290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2661"/>
+  <dimension ref="A1:C2662"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30564,6 +30564,17 @@
         <v>304</v>
       </c>
     </row>
+    <row r="2662" spans="1:3">
+      <c r="A2662" s="1">
+        <v>12058</v>
+      </c>
+      <c r="B2662" s="2">
+        <v>44792</v>
+      </c>
+      <c r="C2662" t="s">
+        <v>298</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2663" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="306">
   <si>
     <t>date</t>
   </si>
@@ -930,6 +930,9 @@
   <si>
     <t>3.22</t>
   </si>
+  <si>
+    <t>3.32</t>
+  </si>
 </sst>
 </file>
 
@@ -1290,7 +1293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2662"/>
+  <dimension ref="A1:C2663"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30575,6 +30578,17 @@
         <v>298</v>
       </c>
     </row>
+    <row r="2663" spans="1:3">
+      <c r="A2663" s="1">
+        <v>12059</v>
+      </c>
+      <c r="B2663" s="2">
+        <v>44795</v>
+      </c>
+      <c r="C2663" t="s">
+        <v>305</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2665" uniqueCount="307">
   <si>
     <t>date</t>
   </si>
@@ -933,6 +933,9 @@
   <si>
     <t>3.32</t>
   </si>
+  <si>
+    <t>3.29</t>
+  </si>
 </sst>
 </file>
 
@@ -1293,7 +1296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2663"/>
+  <dimension ref="A1:C2664"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30589,6 +30592,17 @@
         <v>305</v>
       </c>
     </row>
+    <row r="2664" spans="1:3">
+      <c r="A2664" s="1">
+        <v>12060</v>
+      </c>
+      <c r="B2664" s="2">
+        <v>44796</v>
+      </c>
+      <c r="C2664" t="s">
+        <v>306</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2665" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="308">
   <si>
     <t>date</t>
   </si>
@@ -935,6 +935,9 @@
   </si>
   <si>
     <t>3.29</t>
+  </si>
+  <si>
+    <t>3.36</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1299,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2664"/>
+  <dimension ref="A1:C2665"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30603,6 +30606,17 @@
         <v>306</v>
       </c>
     </row>
+    <row r="2665" spans="1:3">
+      <c r="A2665" s="1">
+        <v>12061</v>
+      </c>
+      <c r="B2665" s="2">
+        <v>44797</v>
+      </c>
+      <c r="C2665" t="s">
+        <v>307</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="309">
   <si>
     <t>date</t>
   </si>
@@ -938,6 +938,9 @@
   </si>
   <si>
     <t>3.36</t>
+  </si>
+  <si>
+    <t>3.35</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2665"/>
+  <dimension ref="A1:C2666"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30617,6 +30620,17 @@
         <v>307</v>
       </c>
     </row>
+    <row r="2666" spans="1:3">
+      <c r="A2666" s="1">
+        <v>12062</v>
+      </c>
+      <c r="B2666" s="2">
+        <v>44798</v>
+      </c>
+      <c r="C2666" t="s">
+        <v>308</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="311">
   <si>
     <t>date</t>
   </si>
@@ -941,6 +941,12 @@
   </si>
   <si>
     <t>3.35</t>
+  </si>
+  <si>
+    <t>3.37</t>
+  </si>
+  <si>
+    <t>3.42</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2666"/>
+  <dimension ref="A1:C2668"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30631,6 +30637,28 @@
         <v>308</v>
       </c>
     </row>
+    <row r="2667" spans="1:3">
+      <c r="A2667" s="1">
+        <v>12063</v>
+      </c>
+      <c r="B2667" s="2">
+        <v>44799</v>
+      </c>
+      <c r="C2667" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:3">
+      <c r="A2668" s="1">
+        <v>12064</v>
+      </c>
+      <c r="B2668" s="2">
+        <v>44802</v>
+      </c>
+      <c r="C2668" t="s">
+        <v>310</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2670" uniqueCount="312">
   <si>
     <t>date</t>
   </si>
@@ -947,6 +947,9 @@
   </si>
   <si>
     <t>3.42</t>
+  </si>
+  <si>
+    <t>3.46</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2668"/>
+  <dimension ref="A1:C2669"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30659,6 +30662,17 @@
         <v>310</v>
       </c>
     </row>
+    <row r="2669" spans="1:3">
+      <c r="A2669" s="1">
+        <v>12065</v>
+      </c>
+      <c r="B2669" s="2">
+        <v>44803</v>
+      </c>
+      <c r="C2669" t="s">
+        <v>311</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2670" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2671" uniqueCount="312">
   <si>
     <t>date</t>
   </si>
@@ -1311,7 +1311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2669"/>
+  <dimension ref="A1:C2670"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30673,6 +30673,17 @@
         <v>311</v>
       </c>
     </row>
+    <row r="2670" spans="1:3">
+      <c r="A2670" s="1">
+        <v>12066</v>
+      </c>
+      <c r="B2670" s="2">
+        <v>44804</v>
+      </c>
+      <c r="C2670" t="s">
+        <v>282</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2671" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2672" uniqueCount="313">
   <si>
     <t>date</t>
   </si>
@@ -950,6 +950,9 @@
   </si>
   <si>
     <t>3.46</t>
+  </si>
+  <si>
+    <t>3.51</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1314,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2670"/>
+  <dimension ref="A1:C2671"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30684,6 +30687,17 @@
         <v>282</v>
       </c>
     </row>
+    <row r="2671" spans="1:3">
+      <c r="A2671" s="1">
+        <v>12067</v>
+      </c>
+      <c r="B2671" s="2">
+        <v>44805</v>
+      </c>
+      <c r="C2671" t="s">
+        <v>312</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2672" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2673" uniqueCount="313">
   <si>
     <t>date</t>
   </si>
@@ -1314,7 +1314,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2671"/>
+  <dimension ref="A1:C2672"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30698,6 +30698,17 @@
         <v>312</v>
       </c>
     </row>
+    <row r="2672" spans="1:3">
+      <c r="A2672" s="1">
+        <v>12068</v>
+      </c>
+      <c r="B2672" s="2">
+        <v>44806</v>
+      </c>
+      <c r="C2672" t="s">
+        <v>281</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2673" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="314">
   <si>
     <t>date</t>
   </si>
@@ -953,6 +953,9 @@
   </si>
   <si>
     <t>3.51</t>
+  </si>
+  <si>
+    <t>3.50</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2672"/>
+  <dimension ref="A1:C2673"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30709,6 +30712,17 @@
         <v>281</v>
       </c>
     </row>
+    <row r="2673" spans="1:3">
+      <c r="A2673" s="1">
+        <v>12070</v>
+      </c>
+      <c r="B2673" s="2">
+        <v>44810</v>
+      </c>
+      <c r="C2673" t="s">
+        <v>313</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2675" uniqueCount="314">
   <si>
     <t>date</t>
   </si>
@@ -1317,7 +1317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2673"/>
+  <dimension ref="A1:C2674"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30723,6 +30723,17 @@
         <v>313</v>
       </c>
     </row>
+    <row r="2674" spans="1:3">
+      <c r="A2674" s="1">
+        <v>12071</v>
+      </c>
+      <c r="B2674" s="2">
+        <v>44811</v>
+      </c>
+      <c r="C2674" t="s">
+        <v>282</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2675" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2676" uniqueCount="315">
   <si>
     <t>date</t>
   </si>
@@ -956,6 +956,9 @@
   </si>
   <si>
     <t>3.50</t>
+  </si>
+  <si>
+    <t>3.48</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1320,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2674"/>
+  <dimension ref="A1:C2675"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30734,6 +30737,17 @@
         <v>282</v>
       </c>
     </row>
+    <row r="2675" spans="1:3">
+      <c r="A2675" s="1">
+        <v>12072</v>
+      </c>
+      <c r="B2675" s="2">
+        <v>44812</v>
+      </c>
+      <c r="C2675" t="s">
+        <v>314</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2676" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2677" uniqueCount="316">
   <si>
     <t>date</t>
   </si>
@@ -959,6 +959,9 @@
   </si>
   <si>
     <t>3.48</t>
+  </si>
+  <si>
+    <t>3.56</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2675"/>
+  <dimension ref="A1:C2676"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30748,6 +30751,17 @@
         <v>314</v>
       </c>
     </row>
+    <row r="2676" spans="1:3">
+      <c r="A2676" s="1">
+        <v>12073</v>
+      </c>
+      <c r="B2676" s="2">
+        <v>44813</v>
+      </c>
+      <c r="C2676" t="s">
+        <v>315</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2677" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="317">
   <si>
     <t>date</t>
   </si>
@@ -962,6 +962,9 @@
   </si>
   <si>
     <t>3.56</t>
+  </si>
+  <si>
+    <t>3.58</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2676"/>
+  <dimension ref="A1:C2677"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30762,6 +30765,17 @@
         <v>315</v>
       </c>
     </row>
+    <row r="2677" spans="1:3">
+      <c r="A2677" s="1">
+        <v>12074</v>
+      </c>
+      <c r="B2677" s="2">
+        <v>44816</v>
+      </c>
+      <c r="C2677" t="s">
+        <v>316</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2679" uniqueCount="318">
   <si>
     <t>date</t>
   </si>
@@ -965,6 +965,9 @@
   </si>
   <si>
     <t>3.58</t>
+  </si>
+  <si>
+    <t>3.75</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1329,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2677"/>
+  <dimension ref="A1:C2678"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30776,6 +30779,17 @@
         <v>316</v>
       </c>
     </row>
+    <row r="2678" spans="1:3">
+      <c r="A2678" s="1">
+        <v>12075</v>
+      </c>
+      <c r="B2678" s="2">
+        <v>44817</v>
+      </c>
+      <c r="C2678" t="s">
+        <v>317</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2679" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2680" uniqueCount="319">
   <si>
     <t>date</t>
   </si>
@@ -968,6 +968,9 @@
   </si>
   <si>
     <t>3.75</t>
+  </si>
+  <si>
+    <t>3.78</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1332,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2678"/>
+  <dimension ref="A1:C2679"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30790,6 +30793,17 @@
         <v>317</v>
       </c>
     </row>
+    <row r="2679" spans="1:3">
+      <c r="A2679" s="1">
+        <v>12076</v>
+      </c>
+      <c r="B2679" s="2">
+        <v>44818</v>
+      </c>
+      <c r="C2679" t="s">
+        <v>318</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2680" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2681" uniqueCount="320">
   <si>
     <t>date</t>
   </si>
@@ -971,6 +971,9 @@
   </si>
   <si>
     <t>3.78</t>
+  </si>
+  <si>
+    <t>3.87</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1335,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2679"/>
+  <dimension ref="A1:C2680"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30804,6 +30807,17 @@
         <v>318</v>
       </c>
     </row>
+    <row r="2680" spans="1:3">
+      <c r="A2680" s="1">
+        <v>12077</v>
+      </c>
+      <c r="B2680" s="2">
+        <v>44819</v>
+      </c>
+      <c r="C2680" t="s">
+        <v>319</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2681" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="321">
   <si>
     <t>date</t>
   </si>
@@ -974,6 +974,9 @@
   </si>
   <si>
     <t>3.87</t>
+  </si>
+  <si>
+    <t>3.85</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1338,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2680"/>
+  <dimension ref="A1:C2681"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30818,6 +30821,17 @@
         <v>319</v>
       </c>
     </row>
+    <row r="2681" spans="1:3">
+      <c r="A2681" s="1">
+        <v>12078</v>
+      </c>
+      <c r="B2681" s="2">
+        <v>44820</v>
+      </c>
+      <c r="C2681" t="s">
+        <v>320</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2683" uniqueCount="322">
   <si>
     <t>date</t>
   </si>
@@ -977,6 +977,9 @@
   </si>
   <si>
     <t>3.85</t>
+  </si>
+  <si>
+    <t>3.95</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1341,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2681"/>
+  <dimension ref="A1:C2682"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30832,6 +30835,17 @@
         <v>320</v>
       </c>
     </row>
+    <row r="2682" spans="1:3">
+      <c r="A2682" s="1">
+        <v>12079</v>
+      </c>
+      <c r="B2682" s="2">
+        <v>44823</v>
+      </c>
+      <c r="C2682" t="s">
+        <v>321</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2683" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2684" uniqueCount="323">
   <si>
     <t>date</t>
   </si>
@@ -980,6 +980,9 @@
   </si>
   <si>
     <t>3.95</t>
+  </si>
+  <si>
+    <t>3.96</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2682"/>
+  <dimension ref="A1:C2683"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30846,6 +30849,17 @@
         <v>321</v>
       </c>
     </row>
+    <row r="2683" spans="1:3">
+      <c r="A2683" s="1">
+        <v>12080</v>
+      </c>
+      <c r="B2683" s="2">
+        <v>44824</v>
+      </c>
+      <c r="C2683" t="s">
+        <v>322</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2684" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="324">
   <si>
     <t>date</t>
   </si>
@@ -983,6 +983,9 @@
   </si>
   <si>
     <t>3.96</t>
+  </si>
+  <si>
+    <t>4.02</t>
   </si>
 </sst>
 </file>
@@ -1344,7 +1347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2683"/>
+  <dimension ref="A1:C2684"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30860,6 +30863,17 @@
         <v>322</v>
       </c>
     </row>
+    <row r="2684" spans="1:3">
+      <c r="A2684" s="1">
+        <v>12081</v>
+      </c>
+      <c r="B2684" s="2">
+        <v>44825</v>
+      </c>
+      <c r="C2684" t="s">
+        <v>323</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2686" uniqueCount="325">
   <si>
     <t>date</t>
   </si>
@@ -986,6 +986,9 @@
   </si>
   <si>
     <t>4.02</t>
+  </si>
+  <si>
+    <t>4.11</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2684"/>
+  <dimension ref="A1:C2685"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30874,6 +30877,17 @@
         <v>323</v>
       </c>
     </row>
+    <row r="2685" spans="1:3">
+      <c r="A2685" s="1">
+        <v>12082</v>
+      </c>
+      <c r="B2685" s="2">
+        <v>44826</v>
+      </c>
+      <c r="C2685" t="s">
+        <v>324</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2686" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2687" uniqueCount="326">
   <si>
     <t>date</t>
   </si>
@@ -989,6 +989,9 @@
   </si>
   <si>
     <t>4.11</t>
+  </si>
+  <si>
+    <t>4.20</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2685"/>
+  <dimension ref="A1:C2686"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30888,6 +30891,17 @@
         <v>324</v>
       </c>
     </row>
+    <row r="2686" spans="1:3">
+      <c r="A2686" s="1">
+        <v>12083</v>
+      </c>
+      <c r="B2686" s="2">
+        <v>44827</v>
+      </c>
+      <c r="C2686" t="s">
+        <v>325</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2687" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2688" uniqueCount="327">
   <si>
     <t>date</t>
   </si>
@@ -992,6 +992,9 @@
   </si>
   <si>
     <t>4.20</t>
+  </si>
+  <si>
+    <t>4.27</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2686"/>
+  <dimension ref="A1:C2687"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30902,6 +30905,17 @@
         <v>325</v>
       </c>
     </row>
+    <row r="2687" spans="1:3">
+      <c r="A2687" s="1">
+        <v>12084</v>
+      </c>
+      <c r="B2687" s="2">
+        <v>44830</v>
+      </c>
+      <c r="C2687" t="s">
+        <v>326</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2688" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2689" uniqueCount="328">
   <si>
     <t>date</t>
   </si>
@@ -995,6 +995,9 @@
   </si>
   <si>
     <t>4.27</t>
+  </si>
+  <si>
+    <t>4.30</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2687"/>
+  <dimension ref="A1:C2688"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30916,6 +30919,17 @@
         <v>326</v>
       </c>
     </row>
+    <row r="2688" spans="1:3">
+      <c r="A2688" s="1">
+        <v>12085</v>
+      </c>
+      <c r="B2688" s="2">
+        <v>44831</v>
+      </c>
+      <c r="C2688" t="s">
+        <v>327</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2689" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="329">
   <si>
     <t>date</t>
   </si>
@@ -998,6 +998,9 @@
   </si>
   <si>
     <t>4.30</t>
+  </si>
+  <si>
+    <t>4.07</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2688"/>
+  <dimension ref="A1:C2689"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30930,6 +30933,17 @@
         <v>327</v>
       </c>
     </row>
+    <row r="2689" spans="1:3">
+      <c r="A2689" s="1">
+        <v>12086</v>
+      </c>
+      <c r="B2689" s="2">
+        <v>44832</v>
+      </c>
+      <c r="C2689" t="s">
+        <v>328</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="330">
   <si>
     <t>date</t>
   </si>
@@ -1001,6 +1001,9 @@
   </si>
   <si>
     <t>4.07</t>
+  </si>
+  <si>
+    <t>4.16</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2689"/>
+  <dimension ref="A1:C2690"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30944,6 +30947,17 @@
         <v>328</v>
       </c>
     </row>
+    <row r="2690" spans="1:3">
+      <c r="A2690" s="1">
+        <v>12087</v>
+      </c>
+      <c r="B2690" s="2">
+        <v>44833</v>
+      </c>
+      <c r="C2690" t="s">
+        <v>329</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="331">
   <si>
     <t>date</t>
   </si>
@@ -1004,6 +1004,9 @@
   </si>
   <si>
     <t>4.16</t>
+  </si>
+  <si>
+    <t>4.22</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2690"/>
+  <dimension ref="A1:C2691"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30958,6 +30961,17 @@
         <v>329</v>
       </c>
     </row>
+    <row r="2691" spans="1:3">
+      <c r="A2691" s="1">
+        <v>12088</v>
+      </c>
+      <c r="B2691" s="2">
+        <v>44834</v>
+      </c>
+      <c r="C2691" t="s">
+        <v>330</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2693" uniqueCount="332">
   <si>
     <t>date</t>
   </si>
@@ -1007,6 +1007,9 @@
   </si>
   <si>
     <t>4.22</t>
+  </si>
+  <si>
+    <t>4.12</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2691"/>
+  <dimension ref="A1:C2692"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30972,6 +30975,17 @@
         <v>330</v>
       </c>
     </row>
+    <row r="2692" spans="1:3">
+      <c r="A2692" s="1">
+        <v>12089</v>
+      </c>
+      <c r="B2692" s="2">
+        <v>44837</v>
+      </c>
+      <c r="C2692" t="s">
+        <v>331</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2693" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="333">
   <si>
     <t>date</t>
   </si>
@@ -1010,6 +1010,9 @@
   </si>
   <si>
     <t>4.12</t>
+  </si>
+  <si>
+    <t>4.10</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2692"/>
+  <dimension ref="A1:C2693"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30986,6 +30989,17 @@
         <v>331</v>
       </c>
     </row>
+    <row r="2693" spans="1:3">
+      <c r="A2693" s="1">
+        <v>12090</v>
+      </c>
+      <c r="B2693" s="2">
+        <v>44838</v>
+      </c>
+      <c r="C2693" t="s">
+        <v>332</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2695" uniqueCount="334">
   <si>
     <t>date</t>
   </si>
@@ -1013,6 +1013,9 @@
   </si>
   <si>
     <t>4.10</t>
+  </si>
+  <si>
+    <t>4.15</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2693"/>
+  <dimension ref="A1:C2694"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31000,6 +31003,17 @@
         <v>332</v>
       </c>
     </row>
+    <row r="2694" spans="1:3">
+      <c r="A2694" s="1">
+        <v>12091</v>
+      </c>
+      <c r="B2694" s="2">
+        <v>44839</v>
+      </c>
+      <c r="C2694" t="s">
+        <v>333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2695" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="335">
   <si>
     <t>date</t>
   </si>
@@ -1016,6 +1016,9 @@
   </si>
   <si>
     <t>4.15</t>
+  </si>
+  <si>
+    <t>4.23</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2694"/>
+  <dimension ref="A1:C2695"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31014,6 +31017,17 @@
         <v>333</v>
       </c>
     </row>
+    <row r="2695" spans="1:3">
+      <c r="A2695" s="1">
+        <v>12092</v>
+      </c>
+      <c r="B2695" s="2">
+        <v>44840</v>
+      </c>
+      <c r="C2695" t="s">
+        <v>334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="335">
   <si>
     <t>date</t>
   </si>
@@ -1380,7 +1380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2695"/>
+  <dimension ref="A1:C2696"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31028,6 +31028,17 @@
         <v>334</v>
       </c>
     </row>
+    <row r="2696" spans="1:3">
+      <c r="A2696" s="1">
+        <v>12093</v>
+      </c>
+      <c r="B2696" s="2">
+        <v>44841</v>
+      </c>
+      <c r="C2696" t="s">
+        <v>327</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="335">
   <si>
     <t>date</t>
   </si>
@@ -1380,7 +1380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2696"/>
+  <dimension ref="A1:C2697"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31039,6 +31039,17 @@
         <v>327</v>
       </c>
     </row>
+    <row r="2697" spans="1:3">
+      <c r="A2697" s="1">
+        <v>12095</v>
+      </c>
+      <c r="B2697" s="2">
+        <v>44845</v>
+      </c>
+      <c r="C2697" t="s">
+        <v>327</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2699" uniqueCount="336">
   <si>
     <t>date</t>
   </si>
@@ -1019,6 +1019,9 @@
   </si>
   <si>
     <t>4.23</t>
+  </si>
+  <si>
+    <t>4.28</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2697"/>
+  <dimension ref="A1:C2698"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31050,6 +31053,17 @@
         <v>327</v>
       </c>
     </row>
+    <row r="2698" spans="1:3">
+      <c r="A2698" s="1">
+        <v>12096</v>
+      </c>
+      <c r="B2698" s="2">
+        <v>44846</v>
+      </c>
+      <c r="C2698" t="s">
+        <v>335</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2699" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="337">
   <si>
     <t>date</t>
   </si>
@@ -1022,6 +1022,9 @@
   </si>
   <si>
     <t>4.28</t>
+  </si>
+  <si>
+    <t>4.47</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2698"/>
+  <dimension ref="A1:C2699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31064,6 +31067,17 @@
         <v>335</v>
       </c>
     </row>
+    <row r="2699" spans="1:3">
+      <c r="A2699" s="1">
+        <v>12097</v>
+      </c>
+      <c r="B2699" s="2">
+        <v>44847</v>
+      </c>
+      <c r="C2699" t="s">
+        <v>336</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2701" uniqueCount="338">
   <si>
     <t>date</t>
   </si>
@@ -1025,6 +1025,9 @@
   </si>
   <si>
     <t>4.47</t>
+  </si>
+  <si>
+    <t>4.48</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2699"/>
+  <dimension ref="A1:C2700"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31078,6 +31081,17 @@
         <v>336</v>
       </c>
     </row>
+    <row r="2700" spans="1:3">
+      <c r="A2700" s="1">
+        <v>12098</v>
+      </c>
+      <c r="B2700" s="2">
+        <v>44848</v>
+      </c>
+      <c r="C2700" t="s">
+        <v>337</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2701" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2702" uniqueCount="339">
   <si>
     <t>date</t>
   </si>
@@ -1028,6 +1028,9 @@
   </si>
   <si>
     <t>4.48</t>
+  </si>
+  <si>
+    <t>4.45</t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2700"/>
+  <dimension ref="A1:C2701"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31092,6 +31095,17 @@
         <v>337</v>
       </c>
     </row>
+    <row r="2701" spans="1:3">
+      <c r="A2701" s="1">
+        <v>12099</v>
+      </c>
+      <c r="B2701" s="2">
+        <v>44851</v>
+      </c>
+      <c r="C2701" t="s">
+        <v>338</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2702" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="340">
   <si>
     <t>date</t>
   </si>
@@ -1031,6 +1031,9 @@
   </si>
   <si>
     <t>4.45</t>
+  </si>
+  <si>
+    <t>4.43</t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2701"/>
+  <dimension ref="A1:C2702"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31106,6 +31109,17 @@
         <v>338</v>
       </c>
     </row>
+    <row r="2702" spans="1:3">
+      <c r="A2702" s="1">
+        <v>12100</v>
+      </c>
+      <c r="B2702" s="2">
+        <v>44852</v>
+      </c>
+      <c r="C2702" t="s">
+        <v>339</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2704" uniqueCount="341">
   <si>
     <t>date</t>
   </si>
@@ -1034,6 +1034,9 @@
   </si>
   <si>
     <t>4.43</t>
+  </si>
+  <si>
+    <t>4.55</t>
   </si>
 </sst>
 </file>
@@ -1395,7 +1398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2702"/>
+  <dimension ref="A1:C2703"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31120,6 +31123,17 @@
         <v>339</v>
       </c>
     </row>
+    <row r="2703" spans="1:3">
+      <c r="A2703" s="1">
+        <v>12101</v>
+      </c>
+      <c r="B2703" s="2">
+        <v>44853</v>
+      </c>
+      <c r="C2703" t="s">
+        <v>340</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2704" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="342">
   <si>
     <t>date</t>
   </si>
@@ -1037,6 +1037,9 @@
   </si>
   <si>
     <t>4.55</t>
+  </si>
+  <si>
+    <t>4.62</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2703"/>
+  <dimension ref="A1:C2704"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31134,6 +31137,17 @@
         <v>340</v>
       </c>
     </row>
+    <row r="2704" spans="1:3">
+      <c r="A2704" s="1">
+        <v>12102</v>
+      </c>
+      <c r="B2704" s="2">
+        <v>44854</v>
+      </c>
+      <c r="C2704" t="s">
+        <v>341</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="343">
   <si>
     <t>date</t>
   </si>
@@ -1040,6 +1040,9 @@
   </si>
   <si>
     <t>4.62</t>
+  </si>
+  <si>
+    <t>4.49</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2704"/>
+  <dimension ref="A1:C2705"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31148,6 +31151,17 @@
         <v>341</v>
       </c>
     </row>
+    <row r="2705" spans="1:3">
+      <c r="A2705" s="1">
+        <v>12103</v>
+      </c>
+      <c r="B2705" s="2">
+        <v>44855</v>
+      </c>
+      <c r="C2705" t="s">
+        <v>342</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2707" uniqueCount="344">
   <si>
     <t>date</t>
   </si>
@@ -1043,6 +1043,9 @@
   </si>
   <si>
     <t>4.49</t>
+  </si>
+  <si>
+    <t>4.50</t>
   </si>
 </sst>
 </file>
@@ -1404,7 +1407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2705"/>
+  <dimension ref="A1:C2706"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31162,6 +31165,17 @@
         <v>342</v>
       </c>
     </row>
+    <row r="2706" spans="1:3">
+      <c r="A2706" s="1">
+        <v>12104</v>
+      </c>
+      <c r="B2706" s="2">
+        <v>44858</v>
+      </c>
+      <c r="C2706" t="s">
+        <v>343</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2707" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2708" uniqueCount="345">
   <si>
     <t>date</t>
   </si>
@@ -1046,6 +1046,9 @@
   </si>
   <si>
     <t>4.50</t>
+  </si>
+  <si>
+    <t>4.42</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2706"/>
+  <dimension ref="A1:C2707"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31176,6 +31179,17 @@
         <v>343</v>
       </c>
     </row>
+    <row r="2707" spans="1:3">
+      <c r="A2707" s="1">
+        <v>12105</v>
+      </c>
+      <c r="B2707" s="2">
+        <v>44859</v>
+      </c>
+      <c r="C2707" t="s">
+        <v>344</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2708" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2709" uniqueCount="346">
   <si>
     <t>date</t>
   </si>
@@ -1049,6 +1049,9 @@
   </si>
   <si>
     <t>4.42</t>
+  </si>
+  <si>
+    <t>4.39</t>
   </si>
 </sst>
 </file>
@@ -1410,7 +1413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2707"/>
+  <dimension ref="A1:C2708"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31190,6 +31193,17 @@
         <v>344</v>
       </c>
     </row>
+    <row r="2708" spans="1:3">
+      <c r="A2708" s="1">
+        <v>12106</v>
+      </c>
+      <c r="B2708" s="2">
+        <v>44860</v>
+      </c>
+      <c r="C2708" t="s">
+        <v>345</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2709" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="346">
   <si>
     <t>date</t>
   </si>
@@ -1413,7 +1413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2708"/>
+  <dimension ref="A1:C2709"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31204,6 +31204,17 @@
         <v>345</v>
       </c>
     </row>
+    <row r="2709" spans="1:3">
+      <c r="A2709" s="1">
+        <v>12107</v>
+      </c>
+      <c r="B2709" s="2">
+        <v>44861</v>
+      </c>
+      <c r="C2709" t="s">
+        <v>327</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="347">
   <si>
     <t>date</t>
   </si>
@@ -1052,6 +1052,9 @@
   </si>
   <si>
     <t>4.39</t>
+  </si>
+  <si>
+    <t>4.41</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2709"/>
+  <dimension ref="A1:C2710"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31215,6 +31218,17 @@
         <v>327</v>
       </c>
     </row>
+    <row r="2710" spans="1:3">
+      <c r="A2710" s="1">
+        <v>12108</v>
+      </c>
+      <c r="B2710" s="2">
+        <v>44862</v>
+      </c>
+      <c r="C2710" t="s">
+        <v>346</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2712" uniqueCount="348">
   <si>
     <t>date</t>
   </si>
@@ -1055,6 +1055,9 @@
   </si>
   <si>
     <t>4.41</t>
+  </si>
+  <si>
+    <t>4.51</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2710"/>
+  <dimension ref="A1:C2711"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31229,6 +31232,17 @@
         <v>346</v>
       </c>
     </row>
+    <row r="2711" spans="1:3">
+      <c r="A2711" s="1">
+        <v>12109</v>
+      </c>
+      <c r="B2711" s="2">
+        <v>44865</v>
+      </c>
+      <c r="C2711" t="s">
+        <v>347</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2712" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="349">
   <si>
     <t>date</t>
   </si>
@@ -1058,6 +1058,9 @@
   </si>
   <si>
     <t>4.51</t>
+  </si>
+  <si>
+    <t>4.54</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2711"/>
+  <dimension ref="A1:C2712"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31243,6 +31246,17 @@
         <v>347</v>
       </c>
     </row>
+    <row r="2712" spans="1:3">
+      <c r="A2712" s="1">
+        <v>12110</v>
+      </c>
+      <c r="B2712" s="2">
+        <v>44866</v>
+      </c>
+      <c r="C2712" t="s">
+        <v>348</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2714" uniqueCount="350">
   <si>
     <t>date</t>
   </si>
@@ -1061,6 +1061,9 @@
   </si>
   <si>
     <t>4.54</t>
+  </si>
+  <si>
+    <t>4.61</t>
   </si>
 </sst>
 </file>
@@ -1422,7 +1425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2712"/>
+  <dimension ref="A1:C2713"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31257,6 +31260,17 @@
         <v>348</v>
       </c>
     </row>
+    <row r="2713" spans="1:3">
+      <c r="A2713" s="1">
+        <v>12111</v>
+      </c>
+      <c r="B2713" s="2">
+        <v>44867</v>
+      </c>
+      <c r="C2713" t="s">
+        <v>349</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2714" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="351">
   <si>
     <t>date</t>
   </si>
@@ -1064,6 +1064,9 @@
   </si>
   <si>
     <t>4.61</t>
+  </si>
+  <si>
+    <t>4.71</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2713"/>
+  <dimension ref="A1:C2714"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31271,6 +31274,17 @@
         <v>349</v>
       </c>
     </row>
+    <row r="2714" spans="1:3">
+      <c r="A2714" s="1">
+        <v>12112</v>
+      </c>
+      <c r="B2714" s="2">
+        <v>44868</v>
+      </c>
+      <c r="C2714" t="s">
+        <v>350</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="352">
   <si>
     <t>date</t>
   </si>
@@ -1067,6 +1067,9 @@
   </si>
   <si>
     <t>4.71</t>
+  </si>
+  <si>
+    <t>4.66</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2714"/>
+  <dimension ref="A1:C2715"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31285,6 +31288,17 @@
         <v>350</v>
       </c>
     </row>
+    <row r="2715" spans="1:3">
+      <c r="A2715" s="1">
+        <v>12113</v>
+      </c>
+      <c r="B2715" s="2">
+        <v>44869</v>
+      </c>
+      <c r="C2715" t="s">
+        <v>351</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="353">
   <si>
     <t>date</t>
   </si>
@@ -1070,6 +1070,9 @@
   </si>
   <si>
     <t>4.66</t>
+  </si>
+  <si>
+    <t>4.72</t>
   </si>
 </sst>
 </file>
@@ -1431,7 +1434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2715"/>
+  <dimension ref="A1:C2716"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31299,6 +31302,17 @@
         <v>351</v>
       </c>
     </row>
+    <row r="2716" spans="1:3">
+      <c r="A2716" s="1">
+        <v>12114</v>
+      </c>
+      <c r="B2716" s="2">
+        <v>44872</v>
+      </c>
+      <c r="C2716" t="s">
+        <v>352</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2718" uniqueCount="354">
   <si>
     <t>date</t>
   </si>
@@ -1073,6 +1073,9 @@
   </si>
   <si>
     <t>4.72</t>
+  </si>
+  <si>
+    <t>4.67</t>
   </si>
 </sst>
 </file>
@@ -1434,7 +1437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2716"/>
+  <dimension ref="A1:C2717"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31313,6 +31316,17 @@
         <v>352</v>
       </c>
     </row>
+    <row r="2717" spans="1:3">
+      <c r="A2717" s="1">
+        <v>12115</v>
+      </c>
+      <c r="B2717" s="2">
+        <v>44873</v>
+      </c>
+      <c r="C2717" t="s">
+        <v>353</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2718" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="354">
   <si>
     <t>date</t>
   </si>
@@ -1437,7 +1437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2717"/>
+  <dimension ref="A1:C2718"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31327,6 +31327,17 @@
         <v>353</v>
       </c>
     </row>
+    <row r="2718" spans="1:3">
+      <c r="A2718" s="1">
+        <v>12116</v>
+      </c>
+      <c r="B2718" s="2">
+        <v>44874</v>
+      </c>
+      <c r="C2718" t="s">
+        <v>349</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2720" uniqueCount="355">
   <si>
     <t>date</t>
   </si>
@@ -1076,6 +1076,9 @@
   </si>
   <si>
     <t>4.67</t>
+  </si>
+  <si>
+    <t>4.34</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2718"/>
+  <dimension ref="A1:C2719"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31338,6 +31341,17 @@
         <v>349</v>
       </c>
     </row>
+    <row r="2719" spans="1:3">
+      <c r="A2719" s="1">
+        <v>12117</v>
+      </c>
+      <c r="B2719" s="2">
+        <v>44875</v>
+      </c>
+      <c r="C2719" t="s">
+        <v>354</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2720" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="356">
   <si>
     <t>date</t>
   </si>
@@ -1079,6 +1079,9 @@
   </si>
   <si>
     <t>4.34</t>
+  </si>
+  <si>
+    <t>4.40</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2719"/>
+  <dimension ref="A1:C2720"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31352,6 +31355,17 @@
         <v>354</v>
       </c>
     </row>
+    <row r="2720" spans="1:3">
+      <c r="A2720" s="1">
+        <v>12119</v>
+      </c>
+      <c r="B2720" s="2">
+        <v>44879</v>
+      </c>
+      <c r="C2720" t="s">
+        <v>355</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="357">
   <si>
     <t>date</t>
   </si>
@@ -1082,6 +1082,9 @@
   </si>
   <si>
     <t>4.40</t>
+  </si>
+  <si>
+    <t>4.37</t>
   </si>
 </sst>
 </file>
@@ -1443,7 +1446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2720"/>
+  <dimension ref="A1:C2721"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31366,6 +31369,17 @@
         <v>355</v>
       </c>
     </row>
+    <row r="2721" spans="1:3">
+      <c r="A2721" s="1">
+        <v>12120</v>
+      </c>
+      <c r="B2721" s="2">
+        <v>44880</v>
+      </c>
+      <c r="C2721" t="s">
+        <v>356</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="358">
   <si>
     <t>date</t>
   </si>
@@ -1085,6 +1085,9 @@
   </si>
   <si>
     <t>4.37</t>
+  </si>
+  <si>
+    <t>4.35</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2721"/>
+  <dimension ref="A1:C2722"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31380,6 +31383,17 @@
         <v>356</v>
       </c>
     </row>
+    <row r="2722" spans="1:3">
+      <c r="A2722" s="1">
+        <v>12121</v>
+      </c>
+      <c r="B2722" s="2">
+        <v>44881</v>
+      </c>
+      <c r="C2722" t="s">
+        <v>357</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2724" uniqueCount="358">
   <si>
     <t>date</t>
   </si>
@@ -1449,7 +1449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2722"/>
+  <dimension ref="A1:C2723"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31394,6 +31394,17 @@
         <v>357</v>
       </c>
     </row>
+    <row r="2723" spans="1:3">
+      <c r="A2723" s="1">
+        <v>12122</v>
+      </c>
+      <c r="B2723" s="2">
+        <v>44882</v>
+      </c>
+      <c r="C2723" t="s">
+        <v>339</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2724" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="358">
   <si>
     <t>date</t>
   </si>
@@ -1449,7 +1449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2723"/>
+  <dimension ref="A1:C2724"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31405,6 +31405,17 @@
         <v>339</v>
       </c>
     </row>
+    <row r="2724" spans="1:3">
+      <c r="A2724" s="1">
+        <v>12123</v>
+      </c>
+      <c r="B2724" s="2">
+        <v>44883</v>
+      </c>
+      <c r="C2724" t="s">
+        <v>347</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2726" uniqueCount="358">
   <si>
     <t>date</t>
   </si>
@@ -1449,7 +1449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2724"/>
+  <dimension ref="A1:C2725"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31416,6 +31416,17 @@
         <v>347</v>
       </c>
     </row>
+    <row r="2725" spans="1:3">
+      <c r="A2725" s="1">
+        <v>12124</v>
+      </c>
+      <c r="B2725" s="2">
+        <v>44886</v>
+      </c>
+      <c r="C2725" t="s">
+        <v>337</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2726" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="358">
   <si>
     <t>date</t>
   </si>
@@ -1449,7 +1449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2725"/>
+  <dimension ref="A1:C2726"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31427,6 +31427,17 @@
         <v>337</v>
       </c>
     </row>
+    <row r="2726" spans="1:3">
+      <c r="A2726" s="1">
+        <v>12125</v>
+      </c>
+      <c r="B2726" s="2">
+        <v>44887</v>
+      </c>
+      <c r="C2726" t="s">
+        <v>336</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="359">
   <si>
     <t>date</t>
   </si>
@@ -1088,6 +1088,9 @@
   </si>
   <si>
     <t>4.35</t>
+  </si>
+  <si>
+    <t>4.46</t>
   </si>
 </sst>
 </file>
@@ -1449,7 +1452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2726"/>
+  <dimension ref="A1:C2727"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31438,6 +31441,17 @@
         <v>336</v>
       </c>
     </row>
+    <row r="2727" spans="1:3">
+      <c r="A2727" s="1">
+        <v>12126</v>
+      </c>
+      <c r="B2727" s="2">
+        <v>44888</v>
+      </c>
+      <c r="C2727" t="s">
+        <v>358</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2729" uniqueCount="359">
   <si>
     <t>date</t>
   </si>
@@ -1452,7 +1452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2727"/>
+  <dimension ref="A1:C2728"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31452,6 +31452,17 @@
         <v>358</v>
       </c>
     </row>
+    <row r="2728" spans="1:3">
+      <c r="A2728" s="1">
+        <v>12128</v>
+      </c>
+      <c r="B2728" s="2">
+        <v>44890</v>
+      </c>
+      <c r="C2728" t="s">
+        <v>344</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2729" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2730" uniqueCount="359">
   <si>
     <t>date</t>
   </si>
@@ -1452,7 +1452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2728"/>
+  <dimension ref="A1:C2729"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31463,6 +31463,17 @@
         <v>344</v>
       </c>
     </row>
+    <row r="2729" spans="1:3">
+      <c r="A2729" s="1">
+        <v>12129</v>
+      </c>
+      <c r="B2729" s="2">
+        <v>44893</v>
+      </c>
+      <c r="C2729" t="s">
+        <v>358</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2730" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="359">
   <si>
     <t>date</t>
   </si>
@@ -1452,7 +1452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2729"/>
+  <dimension ref="A1:C2730"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31474,6 +31474,17 @@
         <v>358</v>
       </c>
     </row>
+    <row r="2730" spans="1:3">
+      <c r="A2730" s="1">
+        <v>12130</v>
+      </c>
+      <c r="B2730" s="2">
+        <v>44894</v>
+      </c>
+      <c r="C2730" t="s">
+        <v>337</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="360">
   <si>
     <t>date</t>
   </si>
@@ -1091,6 +1091,9 @@
   </si>
   <si>
     <t>4.46</t>
+  </si>
+  <si>
+    <t>4.38</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2730"/>
+  <dimension ref="A1:C2731"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31485,6 +31488,17 @@
         <v>337</v>
       </c>
     </row>
+    <row r="2731" spans="1:3">
+      <c r="A2731" s="1">
+        <v>12131</v>
+      </c>
+      <c r="B2731" s="2">
+        <v>44895</v>
+      </c>
+      <c r="C2731" t="s">
+        <v>359</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="361">
   <si>
     <t>date</t>
   </si>
@@ -1094,6 +1094,9 @@
   </si>
   <si>
     <t>4.38</t>
+  </si>
+  <si>
+    <t>4.25</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2731"/>
+  <dimension ref="A1:C2732"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31499,6 +31502,17 @@
         <v>359</v>
       </c>
     </row>
+    <row r="2732" spans="1:3">
+      <c r="A2732" s="1">
+        <v>12132</v>
+      </c>
+      <c r="B2732" s="2">
+        <v>44896</v>
+      </c>
+      <c r="C2732" t="s">
+        <v>360</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2734" uniqueCount="361">
   <si>
     <t>date</t>
   </si>
@@ -1458,7 +1458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2732"/>
+  <dimension ref="A1:C2733"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31513,6 +31513,17 @@
         <v>360</v>
       </c>
     </row>
+    <row r="2733" spans="1:3">
+      <c r="A2733" s="1">
+        <v>12133</v>
+      </c>
+      <c r="B2733" s="2">
+        <v>44897</v>
+      </c>
+      <c r="C2733" t="s">
+        <v>335</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2734" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2735" uniqueCount="361">
   <si>
     <t>date</t>
   </si>
@@ -1458,7 +1458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2733"/>
+  <dimension ref="A1:C2734"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31524,6 +31524,17 @@
         <v>335</v>
       </c>
     </row>
+    <row r="2734" spans="1:3">
+      <c r="A2734" s="1">
+        <v>12134</v>
+      </c>
+      <c r="B2734" s="2">
+        <v>44900</v>
+      </c>
+      <c r="C2734" t="s">
+        <v>346</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2735" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="361">
   <si>
     <t>date</t>
   </si>
@@ -1458,7 +1458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2734"/>
+  <dimension ref="A1:C2735"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31535,6 +31535,17 @@
         <v>346</v>
       </c>
     </row>
+    <row r="2735" spans="1:3">
+      <c r="A2735" s="1">
+        <v>12135</v>
+      </c>
+      <c r="B2735" s="2">
+        <v>44901</v>
+      </c>
+      <c r="C2735" t="s">
+        <v>354</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2738" uniqueCount="363">
   <si>
     <t>date</t>
   </si>
@@ -1097,6 +1097,12 @@
   </si>
   <si>
     <t>4.25</t>
+  </si>
+  <si>
+    <t>4.26</t>
+  </si>
+  <si>
+    <t>4.31</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2735"/>
+  <dimension ref="A1:C2737"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31546,6 +31552,28 @@
         <v>354</v>
       </c>
     </row>
+    <row r="2736" spans="1:3">
+      <c r="A2736" s="1">
+        <v>12136</v>
+      </c>
+      <c r="B2736" s="2">
+        <v>44902</v>
+      </c>
+      <c r="C2736" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2737" spans="1:3">
+      <c r="A2737" s="1">
+        <v>12137</v>
+      </c>
+      <c r="B2737" s="2">
+        <v>44903</v>
+      </c>
+      <c r="C2737" t="s">
+        <v>362</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2738" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2739" uniqueCount="364">
   <si>
     <t>date</t>
   </si>
@@ -1103,6 +1103,9 @@
   </si>
   <si>
     <t>4.31</t>
+  </si>
+  <si>
+    <t>4.33</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2737"/>
+  <dimension ref="A1:C2738"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31574,6 +31577,17 @@
         <v>362</v>
       </c>
     </row>
+    <row r="2738" spans="1:3">
+      <c r="A2738" s="1">
+        <v>12138</v>
+      </c>
+      <c r="B2738" s="2">
+        <v>44904</v>
+      </c>
+      <c r="C2738" t="s">
+        <v>363</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2739" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2740" uniqueCount="364">
   <si>
     <t>date</t>
   </si>
@@ -1467,7 +1467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2738"/>
+  <dimension ref="A1:C2739"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31588,6 +31588,17 @@
         <v>363</v>
       </c>
     </row>
+    <row r="2739" spans="1:3">
+      <c r="A2739" s="1">
+        <v>12139</v>
+      </c>
+      <c r="B2739" s="2">
+        <v>44907</v>
+      </c>
+      <c r="C2739" t="s">
+        <v>345</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2740" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2741" uniqueCount="364">
   <si>
     <t>date</t>
   </si>
@@ -1467,7 +1467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2739"/>
+  <dimension ref="A1:C2740"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31599,6 +31599,17 @@
         <v>345</v>
       </c>
     </row>
+    <row r="2740" spans="1:3">
+      <c r="A2740" s="1">
+        <v>12140</v>
+      </c>
+      <c r="B2740" s="2">
+        <v>44908</v>
+      </c>
+      <c r="C2740" t="s">
+        <v>330</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2741" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2742" uniqueCount="364">
   <si>
     <t>date</t>
   </si>
@@ -1467,7 +1467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2740"/>
+  <dimension ref="A1:C2741"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31610,6 +31610,17 @@
         <v>330</v>
       </c>
     </row>
+    <row r="2741" spans="1:3">
+      <c r="A2741" s="1">
+        <v>12141</v>
+      </c>
+      <c r="B2741" s="2">
+        <v>44909</v>
+      </c>
+      <c r="C2741" t="s">
+        <v>334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2742" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2744" uniqueCount="365">
   <si>
     <t>date</t>
   </si>
@@ -1106,6 +1106,9 @@
   </si>
   <si>
     <t>4.33</t>
+  </si>
+  <si>
+    <t>4.17</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2741"/>
+  <dimension ref="A1:C2743"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31621,6 +31624,28 @@
         <v>334</v>
       </c>
     </row>
+    <row r="2742" spans="1:3">
+      <c r="A2742" s="1">
+        <v>12142</v>
+      </c>
+      <c r="B2742" s="2">
+        <v>44910</v>
+      </c>
+      <c r="C2742" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2743" spans="1:3">
+      <c r="A2743" s="1">
+        <v>12143</v>
+      </c>
+      <c r="B2743" s="2">
+        <v>44911</v>
+      </c>
+      <c r="C2743" t="s">
+        <v>364</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2744" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2745" uniqueCount="365">
   <si>
     <t>date</t>
   </si>
@@ -1470,7 +1470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2743"/>
+  <dimension ref="A1:C2744"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31646,6 +31646,17 @@
         <v>364</v>
       </c>
     </row>
+    <row r="2744" spans="1:3">
+      <c r="A2744" s="1">
+        <v>12144</v>
+      </c>
+      <c r="B2744" s="2">
+        <v>44914</v>
+      </c>
+      <c r="C2744" t="s">
+        <v>360</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2745" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="365">
   <si>
     <t>date</t>
   </si>
@@ -1470,7 +1470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2744"/>
+  <dimension ref="A1:C2745"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31657,6 +31657,17 @@
         <v>360</v>
       </c>
     </row>
+    <row r="2745" spans="1:3">
+      <c r="A2745" s="1">
+        <v>12145</v>
+      </c>
+      <c r="B2745" s="2">
+        <v>44915</v>
+      </c>
+      <c r="C2745" t="s">
+        <v>360</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2747" uniqueCount="366">
   <si>
     <t>date</t>
   </si>
@@ -1109,6 +1109,9 @@
   </si>
   <si>
     <t>4.17</t>
+  </si>
+  <si>
+    <t>4.21</t>
   </si>
 </sst>
 </file>
@@ -1470,7 +1473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2745"/>
+  <dimension ref="A1:C2746"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31668,6 +31671,17 @@
         <v>360</v>
       </c>
     </row>
+    <row r="2746" spans="1:3">
+      <c r="A2746" s="1">
+        <v>12146</v>
+      </c>
+      <c r="B2746" s="2">
+        <v>44916</v>
+      </c>
+      <c r="C2746" t="s">
+        <v>365</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2747" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="368">
   <si>
     <t>date</t>
   </si>
@@ -1112,6 +1112,12 @@
   </si>
   <si>
     <t>4.21</t>
+  </si>
+  <si>
+    <t>4.24</t>
+  </si>
+  <si>
+    <t>4.32</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2746"/>
+  <dimension ref="A1:C2749"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31682,6 +31688,39 @@
         <v>365</v>
       </c>
     </row>
+    <row r="2747" spans="1:3">
+      <c r="A2747" s="1">
+        <v>12147</v>
+      </c>
+      <c r="B2747" s="2">
+        <v>44917</v>
+      </c>
+      <c r="C2747" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2748" spans="1:3">
+      <c r="A2748" s="1">
+        <v>12148</v>
+      </c>
+      <c r="B2748" s="2">
+        <v>44918</v>
+      </c>
+      <c r="C2748" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2749" spans="1:3">
+      <c r="A2749" s="1">
+        <v>12150</v>
+      </c>
+      <c r="B2749" s="2">
+        <v>44922</v>
+      </c>
+      <c r="C2749" t="s">
+        <v>367</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2751" uniqueCount="368">
   <si>
     <t>date</t>
   </si>
@@ -1479,7 +1479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2749"/>
+  <dimension ref="A1:C2750"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31721,6 +31721,17 @@
         <v>367</v>
       </c>
     </row>
+    <row r="2750" spans="1:3">
+      <c r="A2750" s="1">
+        <v>12151</v>
+      </c>
+      <c r="B2750" s="2">
+        <v>44923</v>
+      </c>
+      <c r="C2750" t="s">
+        <v>362</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2751" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="368">
   <si>
     <t>date</t>
   </si>
@@ -1479,7 +1479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2750"/>
+  <dimension ref="A1:C2751"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31732,6 +31732,17 @@
         <v>362</v>
       </c>
     </row>
+    <row r="2751" spans="1:3">
+      <c r="A2751" s="1">
+        <v>12152</v>
+      </c>
+      <c r="B2751" s="2">
+        <v>44924</v>
+      </c>
+      <c r="C2751" t="s">
+        <v>354</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2753" uniqueCount="368">
   <si>
     <t>date</t>
   </si>
@@ -1479,7 +1479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2751"/>
+  <dimension ref="A1:C2752"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31743,6 +31743,17 @@
         <v>354</v>
       </c>
     </row>
+    <row r="2752" spans="1:3">
+      <c r="A2752" s="1">
+        <v>12153</v>
+      </c>
+      <c r="B2752" s="2">
+        <v>44925</v>
+      </c>
+      <c r="C2752" t="s">
+        <v>346</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2753" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2754" uniqueCount="368">
   <si>
     <t>date</t>
   </si>
@@ -1479,7 +1479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2752"/>
+  <dimension ref="A1:C2753"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31754,6 +31754,17 @@
         <v>346</v>
       </c>
     </row>
+    <row r="2753" spans="1:3">
+      <c r="A2753" s="1">
+        <v>12155</v>
+      </c>
+      <c r="B2753" s="2">
+        <v>44929</v>
+      </c>
+      <c r="C2753" t="s">
+        <v>355</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2754" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="396">
   <si>
     <t>date</t>
   </si>
@@ -1118,6 +1118,90 @@
   </si>
   <si>
     <t>4.32</t>
+  </si>
+  <si>
+    <t>4.36</t>
+  </si>
+  <si>
+    <t>4.19</t>
+  </si>
+  <si>
+    <t>4.18</t>
+  </si>
+  <si>
+    <t>4.06</t>
+  </si>
+  <si>
+    <t>4.09</t>
+  </si>
+  <si>
+    <t>4.14</t>
+  </si>
+  <si>
+    <t>4.44</t>
+  </si>
+  <si>
+    <t>4.52</t>
+  </si>
+  <si>
+    <t>4.60</t>
+  </si>
+  <si>
+    <t>4.78</t>
+  </si>
+  <si>
+    <t>4.81</t>
+  </si>
+  <si>
+    <t>4.89</t>
+  </si>
+  <si>
+    <t>4.86</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.05</t>
+  </si>
+  <si>
+    <t>4.90</t>
+  </si>
+  <si>
+    <t>4.03</t>
+  </si>
+  <si>
+    <t>3.93</t>
+  </si>
+  <si>
+    <t>3.81</t>
+  </si>
+  <si>
+    <t>3.92</t>
+  </si>
+  <si>
+    <t>3.76</t>
+  </si>
+  <si>
+    <t>3.94</t>
+  </si>
+  <si>
+    <t>4.08</t>
+  </si>
+  <si>
+    <t>3.97</t>
+  </si>
+  <si>
+    <t>3.84</t>
+  </si>
+  <si>
+    <t>3.79</t>
+  </si>
+  <si>
+    <t>3.82</t>
+  </si>
+  <si>
+    <t>4.00</t>
   </si>
 </sst>
 </file>
@@ -1479,7 +1563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2753"/>
+  <dimension ref="A1:C2821"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31765,6 +31849,754 @@
         <v>355</v>
       </c>
     </row>
+    <row r="2754" spans="1:3">
+      <c r="A2754" s="1">
+        <v>12156</v>
+      </c>
+      <c r="B2754" s="2">
+        <v>44930</v>
+      </c>
+      <c r="C2754" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2755" spans="1:3">
+      <c r="A2755" s="1">
+        <v>12157</v>
+      </c>
+      <c r="B2755" s="2">
+        <v>44931</v>
+      </c>
+      <c r="C2755" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2756" spans="1:3">
+      <c r="A2756" s="1">
+        <v>12158</v>
+      </c>
+      <c r="B2756" s="2">
+        <v>44932</v>
+      </c>
+      <c r="C2756" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2757" spans="1:3">
+      <c r="A2757" s="1">
+        <v>12159</v>
+      </c>
+      <c r="B2757" s="2">
+        <v>44935</v>
+      </c>
+      <c r="C2757" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2758" spans="1:3">
+      <c r="A2758" s="1">
+        <v>12160</v>
+      </c>
+      <c r="B2758" s="2">
+        <v>44936</v>
+      </c>
+      <c r="C2758" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2759" spans="1:3">
+      <c r="A2759" s="1">
+        <v>12161</v>
+      </c>
+      <c r="B2759" s="2">
+        <v>44937</v>
+      </c>
+      <c r="C2759" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:3">
+      <c r="A2760" s="1">
+        <v>12162</v>
+      </c>
+      <c r="B2760" s="2">
+        <v>44938</v>
+      </c>
+      <c r="C2760" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2761" spans="1:3">
+      <c r="A2761" s="1">
+        <v>12163</v>
+      </c>
+      <c r="B2761" s="2">
+        <v>44939</v>
+      </c>
+      <c r="C2761" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2762" spans="1:3">
+      <c r="A2762" s="1">
+        <v>12165</v>
+      </c>
+      <c r="B2762" s="2">
+        <v>44943</v>
+      </c>
+      <c r="C2762" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2763" spans="1:3">
+      <c r="A2763" s="1">
+        <v>12166</v>
+      </c>
+      <c r="B2763" s="2">
+        <v>44944</v>
+      </c>
+      <c r="C2763" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:3">
+      <c r="A2764" s="1">
+        <v>12167</v>
+      </c>
+      <c r="B2764" s="2">
+        <v>44945</v>
+      </c>
+      <c r="C2764" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2765" spans="1:3">
+      <c r="A2765" s="1">
+        <v>12168</v>
+      </c>
+      <c r="B2765" s="2">
+        <v>44946</v>
+      </c>
+      <c r="C2765" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:3">
+      <c r="A2766" s="1">
+        <v>12169</v>
+      </c>
+      <c r="B2766" s="2">
+        <v>44949</v>
+      </c>
+      <c r="C2766" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2767" spans="1:3">
+      <c r="A2767" s="1">
+        <v>12170</v>
+      </c>
+      <c r="B2767" s="2">
+        <v>44950</v>
+      </c>
+      <c r="C2767" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2768" spans="1:3">
+      <c r="A2768" s="1">
+        <v>12171</v>
+      </c>
+      <c r="B2768" s="2">
+        <v>44951</v>
+      </c>
+      <c r="C2768" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2769" spans="1:3">
+      <c r="A2769" s="1">
+        <v>12172</v>
+      </c>
+      <c r="B2769" s="2">
+        <v>44952</v>
+      </c>
+      <c r="C2769" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2770" spans="1:3">
+      <c r="A2770" s="1">
+        <v>12173</v>
+      </c>
+      <c r="B2770" s="2">
+        <v>44953</v>
+      </c>
+      <c r="C2770" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2771" spans="1:3">
+      <c r="A2771" s="1">
+        <v>12174</v>
+      </c>
+      <c r="B2771" s="2">
+        <v>44956</v>
+      </c>
+      <c r="C2771" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2772" spans="1:3">
+      <c r="A2772" s="1">
+        <v>12175</v>
+      </c>
+      <c r="B2772" s="2">
+        <v>44957</v>
+      </c>
+      <c r="C2772" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:3">
+      <c r="A2773" s="1">
+        <v>12176</v>
+      </c>
+      <c r="B2773" s="2">
+        <v>44958</v>
+      </c>
+      <c r="C2773" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2774" spans="1:3">
+      <c r="A2774" s="1">
+        <v>12177</v>
+      </c>
+      <c r="B2774" s="2">
+        <v>44959</v>
+      </c>
+      <c r="C2774" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:3">
+      <c r="A2775" s="1">
+        <v>12178</v>
+      </c>
+      <c r="B2775" s="2">
+        <v>44960</v>
+      </c>
+      <c r="C2775" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:3">
+      <c r="A2776" s="1">
+        <v>12179</v>
+      </c>
+      <c r="B2776" s="2">
+        <v>44963</v>
+      </c>
+      <c r="C2776" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2777" spans="1:3">
+      <c r="A2777" s="1">
+        <v>12180</v>
+      </c>
+      <c r="B2777" s="2">
+        <v>44964</v>
+      </c>
+      <c r="C2777" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2778" spans="1:3">
+      <c r="A2778" s="1">
+        <v>12181</v>
+      </c>
+      <c r="B2778" s="2">
+        <v>44965</v>
+      </c>
+      <c r="C2778" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:3">
+      <c r="A2779" s="1">
+        <v>12182</v>
+      </c>
+      <c r="B2779" s="2">
+        <v>44966</v>
+      </c>
+      <c r="C2779" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:3">
+      <c r="A2780" s="1">
+        <v>12183</v>
+      </c>
+      <c r="B2780" s="2">
+        <v>44967</v>
+      </c>
+      <c r="C2780" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2781" spans="1:3">
+      <c r="A2781" s="1">
+        <v>12184</v>
+      </c>
+      <c r="B2781" s="2">
+        <v>44970</v>
+      </c>
+      <c r="C2781" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2782" spans="1:3">
+      <c r="A2782" s="1">
+        <v>12185</v>
+      </c>
+      <c r="B2782" s="2">
+        <v>44971</v>
+      </c>
+      <c r="C2782" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="2783" spans="1:3">
+      <c r="A2783" s="1">
+        <v>12186</v>
+      </c>
+      <c r="B2783" s="2">
+        <v>44972</v>
+      </c>
+      <c r="C2783" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2784" spans="1:3">
+      <c r="A2784" s="1">
+        <v>12187</v>
+      </c>
+      <c r="B2784" s="2">
+        <v>44973</v>
+      </c>
+      <c r="C2784" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2785" spans="1:3">
+      <c r="A2785" s="1">
+        <v>12188</v>
+      </c>
+      <c r="B2785" s="2">
+        <v>44974</v>
+      </c>
+      <c r="C2785" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="2786" spans="1:3">
+      <c r="A2786" s="1">
+        <v>12190</v>
+      </c>
+      <c r="B2786" s="2">
+        <v>44978</v>
+      </c>
+      <c r="C2786" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2787" spans="1:3">
+      <c r="A2787" s="1">
+        <v>12191</v>
+      </c>
+      <c r="B2787" s="2">
+        <v>44979</v>
+      </c>
+      <c r="C2787" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2788" spans="1:3">
+      <c r="A2788" s="1">
+        <v>12192</v>
+      </c>
+      <c r="B2788" s="2">
+        <v>44980</v>
+      </c>
+      <c r="C2788" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2789" spans="1:3">
+      <c r="A2789" s="1">
+        <v>12193</v>
+      </c>
+      <c r="B2789" s="2">
+        <v>44981</v>
+      </c>
+      <c r="C2789" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2790" spans="1:3">
+      <c r="A2790" s="1">
+        <v>12194</v>
+      </c>
+      <c r="B2790" s="2">
+        <v>44984</v>
+      </c>
+      <c r="C2790" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2791" spans="1:3">
+      <c r="A2791" s="1">
+        <v>12195</v>
+      </c>
+      <c r="B2791" s="2">
+        <v>44985</v>
+      </c>
+      <c r="C2791" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2792" spans="1:3">
+      <c r="A2792" s="1">
+        <v>12196</v>
+      </c>
+      <c r="B2792" s="2">
+        <v>44986</v>
+      </c>
+      <c r="C2792" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2793" spans="1:3">
+      <c r="A2793" s="1">
+        <v>12197</v>
+      </c>
+      <c r="B2793" s="2">
+        <v>44987</v>
+      </c>
+      <c r="C2793" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2794" spans="1:3">
+      <c r="A2794" s="1">
+        <v>12198</v>
+      </c>
+      <c r="B2794" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C2794" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2795" spans="1:3">
+      <c r="A2795" s="1">
+        <v>12199</v>
+      </c>
+      <c r="B2795" s="2">
+        <v>44991</v>
+      </c>
+      <c r="C2795" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2796" spans="1:3">
+      <c r="A2796" s="1">
+        <v>12200</v>
+      </c>
+      <c r="B2796" s="2">
+        <v>44992</v>
+      </c>
+      <c r="C2796" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2797" spans="1:3">
+      <c r="A2797" s="1">
+        <v>12201</v>
+      </c>
+      <c r="B2797" s="2">
+        <v>44993</v>
+      </c>
+      <c r="C2797" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2798" spans="1:3">
+      <c r="A2798" s="1">
+        <v>12202</v>
+      </c>
+      <c r="B2798" s="2">
+        <v>44994</v>
+      </c>
+      <c r="C2798" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2799" spans="1:3">
+      <c r="A2799" s="1">
+        <v>12203</v>
+      </c>
+      <c r="B2799" s="2">
+        <v>44995</v>
+      </c>
+      <c r="C2799" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="2800" spans="1:3">
+      <c r="A2800" s="1">
+        <v>12204</v>
+      </c>
+      <c r="B2800" s="2">
+        <v>44998</v>
+      </c>
+      <c r="C2800" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="2801" spans="1:3">
+      <c r="A2801" s="1">
+        <v>12205</v>
+      </c>
+      <c r="B2801" s="2">
+        <v>44999</v>
+      </c>
+      <c r="C2801" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2802" spans="1:3">
+      <c r="A2802" s="1">
+        <v>12206</v>
+      </c>
+      <c r="B2802" s="2">
+        <v>45000</v>
+      </c>
+      <c r="C2802" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2803" spans="1:3">
+      <c r="A2803" s="1">
+        <v>12207</v>
+      </c>
+      <c r="B2803" s="2">
+        <v>45001</v>
+      </c>
+      <c r="C2803" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2804" spans="1:3">
+      <c r="A2804" s="1">
+        <v>12208</v>
+      </c>
+      <c r="B2804" s="2">
+        <v>45002</v>
+      </c>
+      <c r="C2804" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2805" spans="1:3">
+      <c r="A2805" s="1">
+        <v>12209</v>
+      </c>
+      <c r="B2805" s="2">
+        <v>45005</v>
+      </c>
+      <c r="C2805" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2806" spans="1:3">
+      <c r="A2806" s="1">
+        <v>12210</v>
+      </c>
+      <c r="B2806" s="2">
+        <v>45006</v>
+      </c>
+      <c r="C2806" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2807" spans="1:3">
+      <c r="A2807" s="1">
+        <v>12211</v>
+      </c>
+      <c r="B2807" s="2">
+        <v>45007</v>
+      </c>
+      <c r="C2807" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2808" spans="1:3">
+      <c r="A2808" s="1">
+        <v>12212</v>
+      </c>
+      <c r="B2808" s="2">
+        <v>45008</v>
+      </c>
+      <c r="C2808" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2809" spans="1:3">
+      <c r="A2809" s="1">
+        <v>12213</v>
+      </c>
+      <c r="B2809" s="2">
+        <v>45009</v>
+      </c>
+      <c r="C2809" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2810" spans="1:3">
+      <c r="A2810" s="1">
+        <v>12214</v>
+      </c>
+      <c r="B2810" s="2">
+        <v>45012</v>
+      </c>
+      <c r="C2810" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2811" spans="1:3">
+      <c r="A2811" s="1">
+        <v>12215</v>
+      </c>
+      <c r="B2811" s="2">
+        <v>45013</v>
+      </c>
+      <c r="C2811" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2812" spans="1:3">
+      <c r="A2812" s="1">
+        <v>12216</v>
+      </c>
+      <c r="B2812" s="2">
+        <v>45014</v>
+      </c>
+      <c r="C2812" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2813" spans="1:3">
+      <c r="A2813" s="1">
+        <v>12217</v>
+      </c>
+      <c r="B2813" s="2">
+        <v>45015</v>
+      </c>
+      <c r="C2813" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2814" spans="1:3">
+      <c r="A2814" s="1">
+        <v>12218</v>
+      </c>
+      <c r="B2814" s="2">
+        <v>45016</v>
+      </c>
+      <c r="C2814" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="2815" spans="1:3">
+      <c r="A2815" s="1">
+        <v>12219</v>
+      </c>
+      <c r="B2815" s="2">
+        <v>45019</v>
+      </c>
+      <c r="C2815" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2816" spans="1:3">
+      <c r="A2816" s="1">
+        <v>12220</v>
+      </c>
+      <c r="B2816" s="2">
+        <v>45020</v>
+      </c>
+      <c r="C2816" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2817" spans="1:3">
+      <c r="A2817" s="1">
+        <v>12221</v>
+      </c>
+      <c r="B2817" s="2">
+        <v>45021</v>
+      </c>
+      <c r="C2817" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:3">
+      <c r="A2818" s="1">
+        <v>12222</v>
+      </c>
+      <c r="B2818" s="2">
+        <v>45022</v>
+      </c>
+      <c r="C2818" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:3">
+      <c r="A2819" s="1">
+        <v>12223</v>
+      </c>
+      <c r="B2819" s="2">
+        <v>45023</v>
+      </c>
+      <c r="C2819" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:3">
+      <c r="A2820" s="1">
+        <v>12224</v>
+      </c>
+      <c r="B2820" s="2">
+        <v>45026</v>
+      </c>
+      <c r="C2820" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2821" spans="1:3">
+      <c r="A2821" s="1">
+        <v>12225</v>
+      </c>
+      <c r="B2821" s="2">
+        <v>45027</v>
+      </c>
+      <c r="C2821" t="s">
+        <v>384</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/ust2y.xlsx
+++ b/mercados/ust2y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2885" uniqueCount="416">
   <si>
     <t>date</t>
   </si>
@@ -1202,6 +1202,66 @@
   </si>
   <si>
     <t>4.00</t>
+  </si>
+  <si>
+    <t>3.86</t>
+  </si>
+  <si>
+    <t>3.90</t>
+  </si>
+  <si>
+    <t>4.04</t>
+  </si>
+  <si>
+    <t>3.89</t>
+  </si>
+  <si>
+    <t>4.01</t>
+  </si>
+  <si>
+    <t>3.98</t>
+  </si>
+  <si>
+    <t>3.99</t>
+  </si>
+  <si>
+    <t>4.29</t>
+  </si>
+  <si>
+    <t>4.56</t>
+  </si>
+  <si>
+    <t>4.59</t>
+  </si>
+  <si>
+    <t>4.74</t>
+  </si>
+  <si>
+    <t>4.70</t>
+  </si>
+  <si>
+    <t>4.68</t>
+  </si>
+  <si>
+    <t>4.77</t>
+  </si>
+  <si>
+    <t>4.65</t>
+  </si>
+  <si>
+    <t>4.87</t>
+  </si>
+  <si>
+    <t>4.94</t>
+  </si>
+  <si>
+    <t>4.99</t>
+  </si>
+  <si>
+    <t>4.85</t>
+  </si>
+  <si>
+    <t>4.88</t>
   </si>
 </sst>
 </file>
@@ -1563,7 +1623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2821"/>
+  <dimension ref="A1:C2884"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32597,6 +32657,699 @@
         <v>384</v>
       </c>
     </row>
+    <row r="2822" spans="1:3">
+      <c r="A2822" s="1">
+        <v>12226</v>
+      </c>
+      <c r="B2822" s="2">
+        <v>45028</v>
+      </c>
+      <c r="C2822" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2823" spans="1:3">
+      <c r="A2823" s="1">
+        <v>12227</v>
+      </c>
+      <c r="B2823" s="2">
+        <v>45029</v>
+      </c>
+      <c r="C2823" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2824" spans="1:3">
+      <c r="A2824" s="1">
+        <v>12228</v>
+      </c>
+      <c r="B2824" s="2">
+        <v>45030</v>
+      </c>
+      <c r="C2824" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:3">
+      <c r="A2825" s="1">
+        <v>12229</v>
+      </c>
+      <c r="B2825" s="2">
+        <v>45033</v>
+      </c>
+      <c r="C2825" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:3">
+      <c r="A2826" s="1">
+        <v>12230</v>
+      </c>
+      <c r="B2826" s="2">
+        <v>45034</v>
+      </c>
+      <c r="C2826" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:3">
+      <c r="A2827" s="1">
+        <v>12231</v>
+      </c>
+      <c r="B2827" s="2">
+        <v>45035</v>
+      </c>
+      <c r="C2827" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2828" spans="1:3">
+      <c r="A2828" s="1">
+        <v>12232</v>
+      </c>
+      <c r="B2828" s="2">
+        <v>45036</v>
+      </c>
+      <c r="C2828" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2829" spans="1:3">
+      <c r="A2829" s="1">
+        <v>12233</v>
+      </c>
+      <c r="B2829" s="2">
+        <v>45037</v>
+      </c>
+      <c r="C2829" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2830" spans="1:3">
+      <c r="A2830" s="1">
+        <v>12234</v>
+      </c>
+      <c r="B2830" s="2">
+        <v>45040</v>
+      </c>
+      <c r="C2830" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2831" spans="1:3">
+      <c r="A2831" s="1">
+        <v>12235</v>
+      </c>
+      <c r="B2831" s="2">
+        <v>45041</v>
+      </c>
+      <c r="C2831" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2832" spans="1:3">
+      <c r="A2832" s="1">
+        <v>12236</v>
+      </c>
+      <c r="B2832" s="2">
+        <v>45042</v>
+      </c>
+      <c r="C2832" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="2833" spans="1:3">
+      <c r="A2833" s="1">
+        <v>12237</v>
+      </c>
+      <c r="B2833" s="2">
+        <v>45043</v>
+      </c>
+      <c r="C2833" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2834" spans="1:3">
+      <c r="A2834" s="1">
+        <v>12238</v>
+      </c>
+      <c r="B2834" s="2">
+        <v>45044</v>
+      </c>
+      <c r="C2834" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2835" spans="1:3">
+      <c r="A2835" s="1">
+        <v>12239</v>
+      </c>
+      <c r="B2835" s="2">
+        <v>45047</v>
+      </c>
+      <c r="C2835" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2836" spans="1:3">
+      <c r="A2836" s="1">
+        <v>12240</v>
+      </c>
+      <c r="B2836" s="2">
+        <v>45048</v>
+      </c>
+      <c r="C2836" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2837" spans="1:3">
+      <c r="A2837" s="1">
+        <v>12241</v>
+      </c>
+      <c r="B2837" s="2">
+        <v>45049</v>
+      </c>
+      <c r="C2837" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="2838" spans="1:3">
+      <c r="A2838" s="1">
+        <v>12242</v>
+      </c>
+      <c r="B2838" s="2">
+        <v>45050</v>
+      </c>
+      <c r="C2838" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2839" spans="1:3">
+      <c r="A2839" s="1">
+        <v>12243</v>
+      </c>
+      <c r="B2839" s="2">
+        <v>45051</v>
+      </c>
+      <c r="C2839" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2840" spans="1:3">
+      <c r="A2840" s="1">
+        <v>12244</v>
+      </c>
+      <c r="B2840" s="2">
+        <v>45054</v>
+      </c>
+      <c r="C2840" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2841" spans="1:3">
+      <c r="A2841" s="1">
+        <v>12245</v>
+      </c>
+      <c r="B2841" s="2">
+        <v>45055</v>
+      </c>
+      <c r="C2841" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2842" spans="1:3">
+      <c r="A2842" s="1">
+        <v>12246</v>
+      </c>
+      <c r="B2842" s="2">
+        <v>45056</v>
+      </c>
+      <c r="C2842" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="2843" spans="1:3">
+      <c r="A2843" s="1">
+        <v>12247</v>
+      </c>
+      <c r="B2843" s="2">
+        <v>45057</v>
+      </c>
+      <c r="C2843" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="2844" spans="1:3">
+      <c r="A2844" s="1">
+        <v>12248</v>
+      </c>
+      <c r="B2844" s="2">
+        <v>45058</v>
+      </c>
+      <c r="C2844" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2845" spans="1:3">
+      <c r="A2845" s="1">
+        <v>12249</v>
+      </c>
+      <c r="B2845" s="2">
+        <v>45061</v>
+      </c>
+      <c r="C2845" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2846" spans="1:3">
+      <c r="A2846" s="1">
+        <v>12250</v>
+      </c>
+      <c r="B2846" s="2">
+        <v>45062</v>
+      </c>
+      <c r="C2846" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="2847" spans="1:3">
+      <c r="A2847" s="1">
+        <v>12251</v>
+      </c>
+      <c r="B2847" s="2">
+        <v>45063</v>
+      </c>
+      <c r="C2847" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2848" spans="1:3">
+      <c r="A2848" s="1">
+        <v>12252</v>
+      </c>
+      <c r="B2848" s="2">
+        <v>45064</v>
+      </c>
+      <c r="C2848" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2849" spans="1:3">
+      <c r="A2849" s="1">
+        <v>12253</v>
+      </c>
+      <c r="B2849" s="2">
+        <v>45065</v>
+      </c>
+      <c r="C2849" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2850" spans="1:3">
+      <c r="A2850" s="1">
+        <v>12254</v>
+      </c>
+      <c r="B2850" s="2">
+        <v>45068</v>
+      </c>
+      <c r="C2850" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="2851" spans="1:3">
+      <c r="A2851" s="1">
+        <v>12255</v>
+      </c>
+      <c r="B2851" s="2">
+        <v>45069</v>
+      </c>
+      <c r="C2851" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2852" spans="1:3">
+      <c r="A2852" s="1">
+        <v>12256</v>
+      </c>
+      <c r="B2852" s="2">
+        <v>45070</v>
+      </c>
+      <c r="C2852" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2853" spans="1:3">
+      <c r="A2853" s="1">
+        <v>12257</v>
+      </c>
+      <c r="B2853" s="2">
+        <v>45071</v>
+      </c>
+      <c r="C2853" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2854" spans="1:3">
+      <c r="A2854" s="1">
+        <v>12258</v>
+      </c>
+      <c r="B2854" s="2">
+        <v>45072</v>
+      </c>
+      <c r="C2854" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2855" spans="1:3">
+      <c r="A2855" s="1">
+        <v>12260</v>
+      </c>
+      <c r="B2855" s="2">
+        <v>45076</v>
+      </c>
+      <c r="C2855" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2856" spans="1:3">
+      <c r="A2856" s="1">
+        <v>12261</v>
+      </c>
+      <c r="B2856" s="2">
+        <v>45077</v>
+      </c>
+      <c r="C2856" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2857" spans="1:3">
+      <c r="A2857" s="1">
+        <v>12262</v>
+      </c>
+      <c r="B2857" s="2">
+        <v>45078</v>
+      </c>
+      <c r="C2857" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="2858" spans="1:3">
+      <c r="A2858" s="1">
+        <v>12263</v>
+      </c>
+      <c r="B2858" s="2">
+        <v>45079</v>
+      </c>
+      <c r="C2858" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2859" spans="1:3">
+      <c r="A2859" s="1">
+        <v>12264</v>
+      </c>
+      <c r="B2859" s="2">
+        <v>45082</v>
+      </c>
+      <c r="C2859" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2860" spans="1:3">
+      <c r="A2860" s="1">
+        <v>12265</v>
+      </c>
+      <c r="B2860" s="2">
+        <v>45083</v>
+      </c>
+      <c r="C2860" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2861" spans="1:3">
+      <c r="A2861" s="1">
+        <v>12266</v>
+      </c>
+      <c r="B2861" s="2">
+        <v>45084</v>
+      </c>
+      <c r="C2861" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="2862" spans="1:3">
+      <c r="A2862" s="1">
+        <v>12267</v>
+      </c>
+      <c r="B2862" s="2">
+        <v>45085</v>
+      </c>
+      <c r="C2862" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2863" spans="1:3">
+      <c r="A2863" s="1">
+        <v>12268</v>
+      </c>
+      <c r="B2863" s="2">
+        <v>45086</v>
+      </c>
+      <c r="C2863" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2864" spans="1:3">
+      <c r="A2864" s="1">
+        <v>12269</v>
+      </c>
+      <c r="B2864" s="2">
+        <v>45089</v>
+      </c>
+      <c r="C2864" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2865" spans="1:3">
+      <c r="A2865" s="1">
+        <v>12270</v>
+      </c>
+      <c r="B2865" s="2">
+        <v>45090</v>
+      </c>
+      <c r="C2865" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2866" spans="1:3">
+      <c r="A2866" s="1">
+        <v>12271</v>
+      </c>
+      <c r="B2866" s="2">
+        <v>45091</v>
+      </c>
+      <c r="C2866" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2867" spans="1:3">
+      <c r="A2867" s="1">
+        <v>12272</v>
+      </c>
+      <c r="B2867" s="2">
+        <v>45092</v>
+      </c>
+      <c r="C2867" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2868" spans="1:3">
+      <c r="A2868" s="1">
+        <v>12273</v>
+      </c>
+      <c r="B2868" s="2">
+        <v>45093</v>
+      </c>
+      <c r="C2868" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2869" spans="1:3">
+      <c r="A2869" s="1">
+        <v>12275</v>
+      </c>
+      <c r="B2869" s="2">
+        <v>45097</v>
+      </c>
+      <c r="C2869" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2870" spans="1:3">
+      <c r="A2870" s="1">
+        <v>12276</v>
+      </c>
+      <c r="B2870" s="2">
+        <v>45098</v>
+      </c>
+      <c r="C2870" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:3">
+      <c r="A2871" s="1">
+        <v>12277</v>
+      </c>
+      <c r="B2871" s="2">
+        <v>45099</v>
+      </c>
+      <c r="C2871" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2872" spans="1:3">
+      <c r="A2872" s="1">
+        <v>12278</v>
+      </c>
+      <c r="B2872" s="2">
+        <v>45100</v>
+      </c>
+      <c r="C2872" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2873" spans="1:3">
+      <c r="A2873" s="1">
+        <v>12279</v>
+      </c>
+      <c r="B2873" s="2">
+        <v>45103</v>
+      </c>
+      <c r="C2873" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="2874" spans="1:3">
+      <c r="A2874" s="1">
+        <v>12280</v>
+      </c>
+      <c r="B2874" s="2">
+        <v>45104</v>
+      </c>
+      <c r="C2874" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2875" spans="1:3">
+      <c r="A2875" s="1">
+        <v>12281</v>
+      </c>
+      <c r="B2875" s="2">
+        <v>45105</v>
+      </c>
+      <c r="C2875" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2876" spans="1:3">
+      <c r="A2876" s="1">
+        <v>12282</v>
+      </c>
+      <c r="B2876" s="2">
+        <v>45106</v>
+      </c>
+      <c r="C2876" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2877" spans="1:3">
+      <c r="A2877" s="1">
+        <v>12283</v>
+      </c>
+      <c r="B2877" s="2">
+        <v>45107</v>
+      </c>
+      <c r="C2877" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:3">
+      <c r="A2878" s="1">
+        <v>12284</v>
+      </c>
+      <c r="B2878" s="2">
+        <v>45110</v>
+      </c>
+      <c r="C2878" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:3">
+      <c r="A2879" s="1">
+        <v>12286</v>
+      </c>
+      <c r="B2879" s="2">
+        <v>45112</v>
+      </c>
+      <c r="C2879" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:3">
+      <c r="A2880" s="1">
+        <v>12287</v>
+      </c>
+      <c r="B2880" s="2">
+        <v>45113</v>
+      </c>
+      <c r="C2880" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:3">
+      <c r="A2881" s="1">
+        <v>12288</v>
+      </c>
+      <c r="B2881" s="2">
+        <v>45114</v>
+      </c>
+      <c r="C2881" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:3">
+      <c r="A2882" s="1">
+        <v>12289</v>
+      </c>
+      <c r="B2882" s="2">
+        <v>45117</v>
+      </c>
+      <c r="C2882" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:3">
+      <c r="A2883" s="1">
+        <v>12290</v>
+      </c>
+      <c r="B2883" s="2">
+        <v>45118</v>
+      </c>
+      <c r="C2883" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:3">
+      <c r="A2884" s="1">
+        <v>12291</v>
+      </c>
+      <c r="B2884" s="2">
+        <v>45119</v>
+      </c>
+      <c r="C2884" t="s">
+        <v>352</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
